--- a/2年生 後期 ゲーム制作/資料/メモ.xlsx
+++ b/2年生 後期 ゲーム制作/資料/メモ.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633BCB5A-450B-47DB-A112-129A50C1B06D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A88810B-9C73-4FD2-AA96-DD4B9523492A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="メモ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +143,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スイッチ</a:t>
+            <a:t>スイッチ作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -184,13 +185,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -203,7 +204,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>スイッチマネージャ</a:t>
+            <a:t>スイッチのリスト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -212,13 +213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -236,8 +237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="228600"/>
-          <a:ext cx="1341120" cy="457200"/>
+          <a:off x="7376160" y="228600"/>
+          <a:ext cx="2011680" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,6 +383,493 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Add</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CE4F99-B1B4-4054-9F53-9238A854635A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="685800"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767CE54D-C2F5-4E68-A4AE-9243AB72EF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="1143000"/>
+          <a:ext cx="1341120" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リストの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を取得</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BE5EFE-63CF-40E4-B3B4-C140C5CD8E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="457200"/>
+          <a:ext cx="2682240" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCD0BEF-79AC-484D-A09D-8273B433B4A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="914400"/>
+          <a:ext cx="2011680" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>扉の接続されているスイッチのリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18738E2E-5006-4BBB-AB1D-6061AE0C4619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="1828800"/>
+          <a:ext cx="2011680" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>接続したいスイッチを扉のスイッチリストに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC7CFC3-EDC8-4792-AE52-27448CEB6985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1600200"/>
+          <a:ext cx="0" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D968A775-62BD-477E-B3F5-2BF1C241D55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="2506980"/>
+          <a:ext cx="2011680" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>扉が開く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B8768B-3720-4852-9E0A-FD1901DCEF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8046720" y="1836420"/>
+          <a:ext cx="2011680" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全てのスイッチが押されたら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -690,13 +1178,27 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D568F-25EE-46CB-B8FB-678CF6D28644}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/メモ.xlsx
+++ b/2年生 後期 ゲーム制作/資料/メモ.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A88810B-9C73-4FD2-AA96-DD4B9523492A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8246E8-D99D-4F19-B336-97B01281B7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="1" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="メモ" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="リスト管理" sheetId="1" r:id="rId1"/>
+    <sheet name="ダメージ処理" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +23,21 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>リストを使って管理する</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,13 +108,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -154,13 +169,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -182,6 +197,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -215,13 +236,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -276,13 +297,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -331,13 +352,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -392,13 +413,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -448,13 +469,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -518,13 +539,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -574,13 +595,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -602,6 +623,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -635,13 +662,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -700,13 +727,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -756,13 +783,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -817,13 +844,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -870,6 +897,801 @@
             <a:t>全てのスイッチが押されたら</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35776E9-DBE6-49D0-801C-487CCE3F0308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="457200"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9E92A7-E86E-4ACB-90A8-959A8BE50DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="1371600"/>
+          <a:ext cx="1341120" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダメージ計算のスクリプト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7BF682-F085-455A-8926-B267D604C0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="914400"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E887FED1-7CAF-4FEB-8CC1-24E3E57045D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="457200"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75290B89-C1AE-4A32-8CBB-8C112E06A0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4015740" y="1371600"/>
+          <a:ext cx="1341120" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃が当たった時の処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C00D37D-94BA-4251-A72B-21C94114EE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="1714500"/>
+          <a:ext cx="2004060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387A6545-A43C-4D3A-B764-EB19DB4BADC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385060" y="1714500"/>
+          <a:ext cx="1341120" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6F5F75-C901-4D81-8BB7-EF1D9D7AE0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4686300" y="914400"/>
+          <a:ext cx="7620" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF534267-B8E3-44D4-A7AC-0943F713C2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="2514600"/>
+          <a:ext cx="1341120" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダメージの数値を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897F0AC4-3BF8-402C-93A1-465205633711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="2057400"/>
+          <a:ext cx="7620" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B3DAC0-08B9-431A-8C34-24842AEFB98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1341120" y="2057400"/>
+          <a:ext cx="2682240" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F353038E-59A5-42FD-8676-EBEC813F5E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="2514600"/>
+          <a:ext cx="1341120" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1177,12 +1999,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA2EF4C-529B-45B7-BDDE-DB625E7704EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1194,11 +2022,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D568F-25EE-46CB-B8FB-678CF6D28644}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/メモ.xlsx
+++ b/2年生 後期 ゲーム制作/資料/メモ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8246E8-D99D-4F19-B336-97B01281B7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80BBCA-13CD-42CF-9A60-B15B2DB8762F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="1" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="2" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト管理" sheetId="1" r:id="rId1"/>
     <sheet name="ダメージ処理" sheetId="3" r:id="rId2"/>
+    <sheet name="追加したいこと" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>リストを使って管理する</t>
     <rPh sb="4" eb="5">
@@ -34,6 +35,65 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インベントリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの使用</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押すアニメーション</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の習性を持った敵</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動く床</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -59,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,9 +147,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,8 +1077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="1371600"/>
-          <a:ext cx="1341120" cy="685800"/>
+          <a:off x="666750" y="1371600"/>
+          <a:ext cx="1333500" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1268,8 +1337,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2022,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0D568F-25EE-46CB-B8FB-678CF6D28644}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2032,4 +2101,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7EC2F-487C-4601-9A1A-69F926588CEC}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/メモ.xlsx
+++ b/2年生 後期 ゲーム制作/資料/メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80BBCA-13CD-42CF-9A60-B15B2DB8762F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65540F0-F8A0-43D8-B39C-11D2D029DF0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="2" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>リストを使って管理する</t>
     <rPh sb="4" eb="5">
@@ -94,6 +94,98 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂</t>
+    <rPh sb="0" eb="1">
+      <t>サカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み物</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間スタミナの減りを軽減</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神回復かHP回復</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵のかかった扉を開けれる</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2105,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7EC2F-487C-4601-9A1A-69F926588CEC}">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2117,9 +2209,10 @@
     <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,8 +2222,14 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2140,15 +2239,44 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/2年生 後期 ゲーム制作/資料/メモ.xlsx
+++ b/2年生 後期 ゲーム制作/資料/メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65540F0-F8A0-43D8-B39C-11D2D029DF0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720E51B-92D1-4601-AC4E-7B267C6C678F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="2" xr2:uid="{29404516-DE96-49DD-9240-24538F9E16EB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>リストを使って管理する</t>
     <rPh sb="4" eb="5">
@@ -68,22 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他の習性を持った敵</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,13 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薬</t>
-    <rPh sb="0" eb="1">
-      <t>クスリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回復</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
@@ -186,6 +163,140 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤い薬</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クスリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い薬</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クスリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足が速くなる</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足が速い</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠を設置する</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動く壁</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音に反応する</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光に反応する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小石</t>
+    <rPh sb="0" eb="2">
+      <t>コイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に投げて気をそらすことが出来る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵範囲が広い</t>
+    <rPh sb="0" eb="4">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃をしてくる</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2197,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7EC2F-487C-4601-9A1A-69F926588CEC}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2220,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
@@ -2234,49 +2345,89 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
